--- a/data/regions/erongo/polling-stations.xlsx
+++ b/data/regions/erongo/polling-stations.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Constituencies" sheetId="1" r:id="rId1"/>
+    <sheet name="PollingStations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>endDateTime</t>
+  </si>
+  <si>
+    <t>Immanuel Ruiters Primary School (LA)</t>
+  </si>
+  <si>
+    <t>Fixed Points</t>
+  </si>
+  <si>
+    <t>Kuisebmond Community Hall (LA)</t>
+  </si>
+  <si>
+    <t>Walvisbay Municipality Social Club Hall (LA)</t>
   </si>
 </sst>
 </file>
@@ -69,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,17 +364,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -379,6 +394,57 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44160.291666666664</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44160.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44160.291666666664</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44160.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44160.291666666664</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44160.875</v>
       </c>
     </row>
   </sheetData>
